--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il4-Il13ra2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il4-Il13ra2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H2">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I2">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J2">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.416822</v>
+        <v>0.4049933333333333</v>
       </c>
       <c r="N2">
-        <v>1.250466</v>
+        <v>1.21498</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.07340332678466667</v>
+        <v>0.03984337913111111</v>
       </c>
       <c r="R2">
-        <v>0.660629941062</v>
+        <v>0.35859041218</v>
       </c>
       <c r="S2">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="T2">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>5.057822</v>
       </c>
       <c r="I3">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J3">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.416822</v>
+        <v>0.4049933333333333</v>
       </c>
       <c r="N3">
-        <v>1.250466</v>
+        <v>1.21498</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.7027371605613333</v>
+        <v>0.6827947303955555</v>
       </c>
       <c r="R3">
-        <v>6.324634445052</v>
+        <v>6.14515257356</v>
       </c>
       <c r="S3">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="T3">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H4">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I4">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J4">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.416822</v>
+        <v>0.4049933333333333</v>
       </c>
       <c r="N4">
-        <v>1.250466</v>
+        <v>1.21498</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.583947614544</v>
+        <v>0.09846926907999999</v>
       </c>
       <c r="R4">
-        <v>5.255528530896</v>
+        <v>0.88622342172</v>
       </c>
       <c r="S4">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="T4">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H5">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I5">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J5">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.416822</v>
+        <v>0.4049933333333333</v>
       </c>
       <c r="N5">
-        <v>1.250466</v>
+        <v>1.21498</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.3465498400793333</v>
+        <v>0.2673362343311111</v>
       </c>
       <c r="R5">
-        <v>3.118948560714</v>
+        <v>2.40602610898</v>
       </c>
       <c r="S5">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="T5">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H6">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I6">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J6">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.416822</v>
+        <v>0.4049933333333333</v>
       </c>
       <c r="N6">
-        <v>1.250466</v>
+        <v>1.21498</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.1602666695933333</v>
+        <v>0.4572222185844445</v>
       </c>
       <c r="R6">
-        <v>1.44240002634</v>
+        <v>4.11499996726</v>
       </c>
       <c r="S6">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="T6">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
     </row>
   </sheetData>
